--- a/Wishlist/cells.xlsx
+++ b/Wishlist/cells.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Wishlist\ugamer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\Wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA15E7-5759-452E-BEE7-BC30A031C0FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7755" windowHeight="4800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7760" windowHeight="4800"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
     <sheet name="Items To Get While Shopping" sheetId="2" r:id="rId2"/>
     <sheet name="Stored Items" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>pop socket</t>
   </si>
@@ -102,12 +101,48 @@
   </si>
   <si>
     <t>cloud amiibo player 2</t>
+  </si>
+  <si>
+    <t>capture card</t>
+  </si>
+  <si>
+    <t>inkling figma</t>
+  </si>
+  <si>
+    <t>one piece pirate warriors 3</t>
+  </si>
+  <si>
+    <t>stream deck</t>
+  </si>
+  <si>
+    <t>nendoroid d.va</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>figma red</t>
+  </si>
+  <si>
+    <t>insignia dock</t>
+  </si>
+  <si>
+    <t>purple vans</t>
+  </si>
+  <si>
+    <t>playstation shirt</t>
+  </si>
+  <si>
+    <t>sonic shirt</t>
+  </si>
+  <si>
+    <t>super nintendo shirt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -144,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,19 +211,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,20 +504,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="17" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="17" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.9" customHeight="1">
@@ -492,156 +534,323 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="14.5">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>9999999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="14.5">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>9.99</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="14.5">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="8">
+        <v>27.99</v>
+      </c>
+      <c r="D4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.5">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>179.99</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
-        <v>48.15</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C8" s="8">
+        <v>51.79</v>
+      </c>
+      <c r="D8" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+    <row r="9" spans="1:4" ht="14.5">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>15.03</v>
+      </c>
+      <c r="D9" s="9">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+    </row>
+    <row r="10" spans="1:4" ht="14.5">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <v>29.99</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C10" s="8">
+        <v>37.75</v>
+      </c>
+      <c r="D10" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="11" spans="1:4" ht="14.5">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
-        <v>29.99</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C11" s="8">
+        <v>53.59</v>
+      </c>
+      <c r="D11" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>58.72</v>
-      </c>
-      <c r="D8" s="7">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>169</v>
+      </c>
+      <c r="D12" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C13" s="8">
+        <v>45.9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>39.99</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>4.95</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C15" s="8">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>34.99</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="C17" s="8">
+        <v>56.99</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>59.99</v>
+      </c>
+      <c r="D18" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>39.99</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8">
+        <v>41.29</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>19.95</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>35</v>
+      </c>
+      <c r="D23" s="10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1588,7 +1797,7 @@
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+  <sortState ref="A2:D10">
     <sortCondition ref="D2:D10"/>
     <sortCondition descending="1" ref="B2:B10"/>
     <sortCondition ref="C2:C10"/>
@@ -1599,25 +1808,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F23BF4-6619-4172-B728-FA7608239700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.5">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1627,22 +1836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605B2DDC-0C95-42A7-B7E9-3D9D202FD3CF}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.5">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1657,16 +1866,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>190.3</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1686,23 +1895,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>15.03</v>
-      </c>
-      <c r="D4" s="9">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>8</v>
       </c>
       <c r="C5">
@@ -1713,76 +1922,63 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>29.99</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>68</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C7" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C9">
+        <v>12.95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>68</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="C10">
+        <v>4.95</v>
+      </c>
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>12.95</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wishlist/cells.xlsx
+++ b/Wishlist/cells.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deboltm\Documents\GitHub\ugamer.github.io\Wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\ugamer.github.io\Wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF3DB6-F8C8-4465-B54F-D2B942FDA01F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7760" windowHeight="4800"/>
+    <workbookView xWindow="28680" yWindow="5595" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Want" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,11 @@
     <sheet name="Stored Items" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>pop socket</t>
   </si>
@@ -73,9 +66,6 @@
     <t>gamecube controller</t>
   </si>
   <si>
-    <t>hyrule warriors</t>
-  </si>
-  <si>
     <t>joy con</t>
   </si>
   <si>
@@ -85,9 +75,6 @@
     <t>marx plush</t>
   </si>
   <si>
-    <t>wireless car charger</t>
-  </si>
-  <si>
     <t>mercy nendo</t>
   </si>
   <si>
@@ -100,27 +87,18 @@
     <t>switch cases</t>
   </si>
   <si>
-    <t>cloud amiibo player 2</t>
-  </si>
-  <si>
     <t>capture card</t>
   </si>
   <si>
     <t>inkling figma</t>
   </si>
   <si>
-    <t>one piece pirate warriors 3</t>
-  </si>
-  <si>
     <t>stream deck</t>
   </si>
   <si>
     <t>nendoroid d.va</t>
   </si>
   <si>
-    <t>memory</t>
-  </si>
-  <si>
     <t>figma red</t>
   </si>
   <si>
@@ -136,14 +114,26 @@
     <t>sonic shirt</t>
   </si>
   <si>
-    <t>super nintendo shirt</t>
+    <t>desk shelf</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>headphone hook</t>
+  </si>
+  <si>
+    <t>marvel ultimate alliance 3</t>
+  </si>
+  <si>
+    <t>switch lite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +168,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,11 +202,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -223,13 +255,161 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,6 +420,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F8400A5-94CD-4BE1-A087-0532E73927FB}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:D11" xr:uid="{82EE07EF-647A-43E8-98E2-930B61B05A62}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortCondition ref="D1:D11"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB86E3B9-1AF6-402D-AEAF-63D904E9E724}" name="Item" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A962F861-8341-4646-9A6B-84D21E4F46F7}" name="Want Level" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0251C1FD-EBAC-4F72-BF6A-DEFCDE3D8F7A}" name="Price" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D2B9A7F4-D3A4-44CB-A971-3EFA7A89B5F2}" name="Arrival Time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,20 +700,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D977"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="17" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.9" customHeight="1">
@@ -534,323 +730,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>9999999</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
-        <v>9.99</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C4" s="4">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>59.99</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="8">
-        <v>27.99</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C7" s="4">
+        <v>179.99</v>
+      </c>
+      <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>207.49</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>59.99</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
-        <v>23.99</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.5">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="C10" s="4">
+        <v>19.95</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
-        <v>179.99</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1.49</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>51.79</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>15.03</v>
-      </c>
-      <c r="D9" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.5">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <v>37.75</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>53.59</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>169</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>45.9</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C11" s="4">
+        <v>199.99</v>
+      </c>
+      <c r="D11" s="4">
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8">
-        <v>39.99</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8">
-        <v>34.99</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8">
-        <v>56.99</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8">
-        <v>59.99</v>
-      </c>
-      <c r="D18" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8">
-        <v>39.99</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8">
-        <v>41.29</v>
-      </c>
-      <c r="D20" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="8">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8">
-        <v>19.95</v>
-      </c>
-      <c r="D21" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="8">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="8">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8">
-        <v>35</v>
-      </c>
-      <c r="D23" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1782,45 +1822,34 @@
     <row r="961" ht="15.75" customHeight="1"/>
     <row r="962" ht="15.75" customHeight="1"/>
     <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="A2:D10">
-    <sortCondition ref="D2:D10"/>
-    <sortCondition descending="1" ref="B2:B10"/>
-    <sortCondition ref="C2:C10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D4">
+    <sortCondition ref="D2:D4"/>
+    <sortCondition descending="1" ref="B2:B4"/>
+    <sortCondition ref="C2:C4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.5">
+    <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1836,22 +1865,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1896,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
@@ -1909,7 +1938,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -1935,50 +1964,201 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>37.75</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>53.59</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>45.9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>59.99</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <v>39.99</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>41.29</v>
+      </c>
+      <c r="D13" s="9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>12.95</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4.95</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>34.99</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15.03</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
-        <v>68</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>12.95</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>4.95</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
+      <c r="C20" s="11">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
+        <v>9999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
